--- a/ise_trustsec_matrix_thomas.xlsx
+++ b/ise_trustsec_matrix_thomas.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/hack/Projects/Cisco_ISE_Meraki_TrustSec_Scripts/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2B418E-05F1-B94B-8E7A-F4B5B1550FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="38400" yWindow="21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
     <sheet name="SGACLs" sheetId="2" r:id="rId2"/>
     <sheet name="SGTs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="41">
   <si>
     <t>SGT</t>
   </si>
@@ -176,8 +182,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,11 +253,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FF64BBE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEF7775"/>
         </patternFill>
       </fill>
     </dxf>
@@ -265,26 +278,41 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFEF7775"/>
+          <bgColor rgb="FF6CC04A"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF64BBE3"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -322,7 +350,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -356,6 +384,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -390,9 +419,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -565,20 +595,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
-    <col min="4" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="11" width="12.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -613,7 +643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -645,7 +675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -677,7 +707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -709,7 +739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -741,7 +771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -752,16 +782,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>15</v>
@@ -770,13 +800,13 @@
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -787,16 +817,16 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>15</v>
@@ -805,13 +835,13 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -846,7 +876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,22 +910,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:K9">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(D2))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="default">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="default">
       <formula>NOT(ISERROR(SEARCH("default",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="allow">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="allow">
       <formula>NOT(ISERROR(SEARCH("allow",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="permit">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="permit">
       <formula>NOT(ISERROR(SEARCH("permit",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="deny">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="deny">
       <formula>NOT(ISERROR(SEARCH("deny",D2)))</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="6">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -904,14 +934,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -928,7 +958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -942,7 +972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -956,7 +986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -970,7 +1000,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -984,7 +1014,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -998,7 +1028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1012,7 +1042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +1056,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1046,14 +1076,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -1073,7 +1103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>18</v>
       </c>
@@ -1090,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>18</v>
       </c>
@@ -1107,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1124,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>18</v>
       </c>
@@ -1141,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>18</v>
       </c>
@@ -1161,7 +1191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>18</v>
       </c>
@@ -1181,7 +1211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>18</v>
       </c>
@@ -1201,7 +1231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>18</v>
       </c>
@@ -1218,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>18</v>
       </c>

--- a/ise_trustsec_matrix_thomas.xlsx
+++ b/ise_trustsec_matrix_thomas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/hack/Projects/Cisco_ISE_Meraki_TrustSec_Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2B418E-05F1-B94B-8E7A-F4B5B1550FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9EAD7F-0A93-2745-9922-7274CE3C885F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="4280" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Camera</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>Guest</t>
-  </si>
-  <si>
     <t>IOT</t>
   </si>
   <si>
@@ -111,62 +102,18 @@
     <t>IPV4</t>
   </si>
   <si>
-    <t>deny icmp any any
-deny tcp any 22
-deny udp any 53
-deny udp any 67
-deny udp any 68
-deny udp any 69
-deny tcp any 135
-deny tcp any 137
-deny tcp any 138
-deny tcp any 139
-deny tcp any 445
-deny tcp any 689
-deny udp any 1025
-deny udp any 1026
-deny tcp any 3389
-allow any any any</t>
-  </si>
-  <si>
     <t>deny ip</t>
   </si>
   <si>
     <t>deny ip log</t>
   </si>
   <si>
-    <t>deny icmp any any
-deny tcp any 21
-allow tcp any 53
-allow udp any 53
-allow udp any 67
-allow udp any 68
-allow udp any 123
-allow udp any 514
-allow udp any 6514
-deny any any any</t>
-  </si>
-  <si>
     <t>permit ip</t>
   </si>
   <si>
     <t>permit ip log</t>
   </si>
   <si>
-    <t>allow tcp any 80
-allow tcp any 443
-allow tcp any 554
-allow udp any 554</t>
-  </si>
-  <si>
-    <t>allow tcp any 2000
-allow udp any 2000
-allow tcp any 5060
-allow udp any 5060
-allow tcp any 5061
-allow udp any 5061</t>
-  </si>
-  <si>
     <t>Icon</t>
   </si>
   <si>
@@ -177,6 +124,59 @@
   </si>
   <si>
     <t>ANY</t>
+  </si>
+  <si>
+    <t>Cameras</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Guests</t>
+  </si>
+  <si>
+    <t>deny icmp
+deny tcp dst eq 22
+deny udp dst eq 53
+deny udp dst eq 67
+deny udp dst eq 68
+deny udp dst eq 69
+deny tcp dst eq 135
+deny tcp dst eq 137
+deny tcp dst eq 138
+deny tcp dst eq 139
+deny tcp dst eq 445
+deny tcp dst eq 689
+deny udp dst eq 1025
+deny udp dst eq 1026
+deny tcp dst eq 3389
+permit ip</t>
+  </si>
+  <si>
+    <t>deny icmp
+deny tcp dst eq 21
+permit tcp dst eq  53
+permit udp dst eq  53
+permit udp dst eq  67
+permit udp dst eq  68
+permit udp dst eq  123
+permit udp dst eq  514
+permit udp dst eq  6514
+deny ip</t>
+  </si>
+  <si>
+    <t>permit tcp dst eq 80
+permit tcp dst eq 443
+permit tcp dst eq 554
+permit udp dst eq 554</t>
+  </si>
+  <si>
+    <t>permit tcp dst eq 2000
+permit udp dst eq 2000
+permit tcp dst eq 5060
+permit udp dst eq 5060
+permit tcp dst eq 5061
+permit udp dst eq 5061</t>
   </si>
 </sst>
 </file>
@@ -235,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -248,6 +248,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -619,293 +625,293 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -937,137 +943,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="29.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="256" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1085,22 +1096,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1108,7 +1119,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -1125,7 +1136,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1142,7 +1153,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -1159,7 +1170,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1176,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1188,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1196,7 +1207,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1208,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1216,7 +1227,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1228,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1236,7 +1247,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1253,7 +1264,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>65535</v>
@@ -1265,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
